--- a/xlsx/莫斯科国立国际关系学院_intext.xlsx
+++ b/xlsx/莫斯科国立国际关系学院_intext.xlsx
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E9%95%B7</t>
   </si>
   <si>
-    <t>校長</t>
-  </si>
-  <si>
-    <t>政策_政策_智庫_莫斯科国立国际关系学院</t>
+    <t>校长</t>
+  </si>
+  <si>
+    <t>政策_政策_智库_莫斯科国立国际关系学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%98%87%E7%B6%AD%E5%9F%83%E8%81%AF%E9%82%A6%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>俄羅斯蘇維埃聯邦社會主義共和國</t>
+    <t>俄罗斯苏维埃联邦社会主义共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%96%AF%E7%A7%91</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
+    <t>保加利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%87%8C%C2%B7%E8%89%AF%E6%A0%BC</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E5%A4%9A%E7%93%A6</t>
   </si>
   <si>
-    <t>摩爾多瓦</t>
+    <t>摩尔多瓦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E7%83%88%C2%B7%E5%8D%A2%E5%8D%A1%E8%AF%BA%E5%A4%AB</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E7%88%BE%E8%93%8B%C2%B7%E5%BC%97%E6%8B%89%E5%9F%BA%E7%B1%B3%E7%BE%85%E7%B6%AD%E5%A5%87%C2%B7%E4%BA%9E%E6%96%AF%E7%89%B9%E5%88%97%E4%BB%BB%E5%B8%83%E6%96%AF%E5%9F%BA</t>
   </si>
   <si>
-    <t>謝爾蓋·弗拉基米羅維奇·亞斯特列任布斯基</t>
+    <t>谢尔盖·弗拉基米罗维奇·亚斯特列任布斯基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E5%B0%94%E7%9B%96%C2%B7%E7%93%A6%E5%9F%BA%E8%8E%AB%E7%BB%B4%E5%A5%87%C2%B7%E5%AE%89%E5%BE%B7%E7%83%88%E8%80%B6%E5%A4%AB</t>
@@ -161,19 +161,19 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%9C%8B%E9%9A%9B%E4%BA%8B%E5%8B%99%E5%B0%88%E6%A5%AD%E5%AD%B8%E9%99%A2%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>Template talk-國際事務專業學院協會</t>
+    <t>Template talk-国际事务专业学院协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8%E5%9C%8B%E9%9A%9B%E5%85%AC%E5%85%B1%E4%BA%8B%E5%8B%99%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哥倫比亞大學國際公共事務學院</t>
+    <t>哥伦比亚大学国际公共事务学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sanford_School_of_Public_Policy</t>
@@ -347,19 +347,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>首爾大學</t>
+    <t>首尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%BA%97%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>高麗大學</t>
+    <t>高丽大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%B6%E4%B8%96%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>延世大學</t>
+    <t>延世大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -455,19 +455,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E9%B3%A5%E7%AE%A1%E7%90%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>雷鳥管理學院</t>
+    <t>雷鸟管理学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>邁阿密大學</t>
+    <t>迈阿密大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%9C%8B%E9%9A%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>佛羅里達國際大學</t>
+    <t>佛罗里达国际大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%BE%B7%E6%B1%89%E5%A7%86%E5%A4%A7%E5%AD%A6</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>俄勒岡大學</t>
+    <t>俄勒冈大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%9B%E9%A1%BF%E8%B4%BA%E5%B0%94%E5%A4%A7%E5%AD%A6%E6%80%80%E7%89%B9%E6%B5%B7%E5%BE%B7%E5%AD%A6%E9%99%A2</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>多倫多大學</t>
+    <t>多伦多大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%85%8B%E5%9B%BD%E9%99%85%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%82%89%E5%B0%BC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>悉尼大學</t>
+    <t>悉尼大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A9%E7%A8%BB%E7%94%B0%E5%A4%A7%E5%AD%A6%E4%BA%9A%E6%B4%B2%E5%A4%AA%E5%B9%B3%E6%B4%8B%E7%A0%94%E7%A9%B6%E7%A7%91</t>
@@ -545,25 +545,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E9%83%BD%E5%AE%AE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>宇都宮大學</t>
+    <t>宇都宫大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E6%94%BF%E6%B2%BB%E5%A4%A7%E5%AD%B8%E5%9C%8B%E9%9A%9B%E4%BA%8B%E5%8B%99%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>國立政治大學國際事務學院</t>
+    <t>国立政治大学国际事务学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%A8%E8%8A%B1%E5%A5%B3%E5%AD%90%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>梨花女子大學</t>
+    <t>梨花女子大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B4%8B%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%A6</t>
@@ -575,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hertie_School_of_Governance</t>
